--- a/SODO/A Tuc/BAOCAO-NQ10-4069/Tong Du An Lia.xlsx
+++ b/SODO/A Tuc/BAOCAO-NQ10-4069/Tong Du An Lia.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Github\SOMUCKE\SODO\A Tuc\BAOCAO-NQ10-4069\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\SOMUCKE\SODO\A Tuc\BAOCAO-NQ10-4069\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,11 +17,14 @@
     <sheet name="TONG DA XLY" sheetId="4" r:id="rId3"/>
     <sheet name="XALIA HVT" sheetId="3" r:id="rId4"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId5"/>
+  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">DSKDDKNQ10!$A$1:$G$89</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'XALIA HVT'!$B$1:$I$306</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -843,7 +846,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -884,12 +887,18 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -904,7 +913,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -936,6 +945,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -951,6 +967,966 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="A2">
+            <v>1</v>
+          </cell>
+          <cell r="B2">
+            <v>529</v>
+          </cell>
+          <cell r="C2" t="str">
+            <v>CLN</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3">
+            <v>3</v>
+          </cell>
+          <cell r="B3">
+            <v>9</v>
+          </cell>
+          <cell r="C3" t="str">
+            <v>CLN</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4">
+            <v>7</v>
+          </cell>
+          <cell r="B4">
+            <v>8</v>
+          </cell>
+          <cell r="C4" t="str">
+            <v>CLN</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5">
+            <v>9</v>
+          </cell>
+          <cell r="B5">
+            <v>10</v>
+          </cell>
+          <cell r="C5" t="str">
+            <v>CLN</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6">
+            <v>16</v>
+          </cell>
+          <cell r="B6">
+            <v>47</v>
+          </cell>
+          <cell r="C6" t="str">
+            <v>CLN</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7">
+            <v>21</v>
+          </cell>
+          <cell r="B7">
+            <v>57</v>
+          </cell>
+          <cell r="C7" t="str">
+            <v>CLN</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8">
+            <v>21</v>
+          </cell>
+          <cell r="B8">
+            <v>60</v>
+          </cell>
+          <cell r="C8" t="str">
+            <v>CLN</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9">
+            <v>21</v>
+          </cell>
+          <cell r="B9">
+            <v>62</v>
+          </cell>
+          <cell r="C9" t="str">
+            <v>CLN</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10">
+            <v>21</v>
+          </cell>
+          <cell r="B10">
+            <v>63</v>
+          </cell>
+          <cell r="C10" t="str">
+            <v>CLN</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11">
+            <v>21</v>
+          </cell>
+          <cell r="B11">
+            <v>64</v>
+          </cell>
+          <cell r="C11" t="str">
+            <v>CLN</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12">
+            <v>21</v>
+          </cell>
+          <cell r="B12">
+            <v>66</v>
+          </cell>
+          <cell r="C12" t="str">
+            <v>CLN</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13">
+            <v>21</v>
+          </cell>
+          <cell r="B13">
+            <v>71</v>
+          </cell>
+          <cell r="C13" t="str">
+            <v>CLN</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14">
+            <v>21</v>
+          </cell>
+          <cell r="B14">
+            <v>72</v>
+          </cell>
+          <cell r="C14" t="str">
+            <v>CLN</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15">
+            <v>21</v>
+          </cell>
+          <cell r="B15">
+            <v>73</v>
+          </cell>
+          <cell r="C15" t="str">
+            <v>CLN</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16">
+            <v>21</v>
+          </cell>
+          <cell r="B16">
+            <v>74</v>
+          </cell>
+          <cell r="C16" t="str">
+            <v>CLN</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17">
+            <v>21</v>
+          </cell>
+          <cell r="B17">
+            <v>76</v>
+          </cell>
+          <cell r="C17" t="str">
+            <v>CLN</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18">
+            <v>21</v>
+          </cell>
+          <cell r="B18">
+            <v>77</v>
+          </cell>
+          <cell r="C18" t="str">
+            <v>CLN</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19">
+            <v>21</v>
+          </cell>
+          <cell r="B19">
+            <v>79</v>
+          </cell>
+          <cell r="C19" t="str">
+            <v>CLN</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20">
+            <v>21</v>
+          </cell>
+          <cell r="B20">
+            <v>80</v>
+          </cell>
+          <cell r="C20" t="str">
+            <v>CLN</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21">
+            <v>21</v>
+          </cell>
+          <cell r="B21">
+            <v>82</v>
+          </cell>
+          <cell r="C21" t="str">
+            <v>CLN</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22">
+            <v>21</v>
+          </cell>
+          <cell r="B22">
+            <v>83</v>
+          </cell>
+          <cell r="C22" t="str">
+            <v>CLN</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23">
+            <v>21</v>
+          </cell>
+          <cell r="B23">
+            <v>84</v>
+          </cell>
+          <cell r="C23" t="str">
+            <v>CLN</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24">
+            <v>21</v>
+          </cell>
+          <cell r="B24">
+            <v>89</v>
+          </cell>
+          <cell r="C24" t="str">
+            <v>CLN</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25">
+            <v>21</v>
+          </cell>
+          <cell r="B25">
+            <v>90</v>
+          </cell>
+          <cell r="C25" t="str">
+            <v>CLN</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="A26">
+            <v>21</v>
+          </cell>
+          <cell r="B26">
+            <v>91</v>
+          </cell>
+          <cell r="C26" t="str">
+            <v>CLN</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="A27">
+            <v>21</v>
+          </cell>
+          <cell r="B27">
+            <v>98</v>
+          </cell>
+          <cell r="C27" t="str">
+            <v>CLN</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="A28">
+            <v>21</v>
+          </cell>
+          <cell r="B28">
+            <v>99</v>
+          </cell>
+          <cell r="C28" t="str">
+            <v>CLN</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="A29">
+            <v>21</v>
+          </cell>
+          <cell r="B29">
+            <v>108</v>
+          </cell>
+          <cell r="C29" t="str">
+            <v>CLN</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="A30">
+            <v>21</v>
+          </cell>
+          <cell r="B30">
+            <v>109</v>
+          </cell>
+          <cell r="C30" t="str">
+            <v>CLN</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="A31">
+            <v>21</v>
+          </cell>
+          <cell r="B31">
+            <v>110</v>
+          </cell>
+          <cell r="C31" t="str">
+            <v>CLN</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="A32">
+            <v>21</v>
+          </cell>
+          <cell r="B32">
+            <v>115</v>
+          </cell>
+          <cell r="C32" t="str">
+            <v>CLN</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="A33">
+            <v>21</v>
+          </cell>
+          <cell r="B33">
+            <v>116</v>
+          </cell>
+          <cell r="C33" t="str">
+            <v>CLN</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="A34">
+            <v>21</v>
+          </cell>
+          <cell r="B34">
+            <v>123</v>
+          </cell>
+          <cell r="C34" t="str">
+            <v>CLN</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="A35">
+            <v>21</v>
+          </cell>
+          <cell r="B35">
+            <v>124</v>
+          </cell>
+          <cell r="C35" t="str">
+            <v>CLN</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="A36">
+            <v>21</v>
+          </cell>
+          <cell r="B36">
+            <v>125</v>
+          </cell>
+          <cell r="C36" t="str">
+            <v>CLN</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="A37">
+            <v>21</v>
+          </cell>
+          <cell r="B37">
+            <v>126</v>
+          </cell>
+          <cell r="C37" t="str">
+            <v>CLN</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="A38">
+            <v>21</v>
+          </cell>
+          <cell r="B38">
+            <v>127</v>
+          </cell>
+          <cell r="C38" t="str">
+            <v>CLN</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="A39">
+            <v>21</v>
+          </cell>
+          <cell r="B39">
+            <v>133</v>
+          </cell>
+          <cell r="C39" t="str">
+            <v>CLN</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="A40">
+            <v>21</v>
+          </cell>
+          <cell r="B40">
+            <v>134</v>
+          </cell>
+          <cell r="C40" t="str">
+            <v>CLN</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="A41">
+            <v>21</v>
+          </cell>
+          <cell r="B41">
+            <v>135</v>
+          </cell>
+          <cell r="C41" t="str">
+            <v>CLN</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="A42">
+            <v>21</v>
+          </cell>
+          <cell r="B42">
+            <v>137</v>
+          </cell>
+          <cell r="C42" t="str">
+            <v>CLN</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="A43">
+            <v>21</v>
+          </cell>
+          <cell r="B43">
+            <v>139</v>
+          </cell>
+          <cell r="C43" t="str">
+            <v>CLN</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="A44">
+            <v>21</v>
+          </cell>
+          <cell r="B44">
+            <v>140</v>
+          </cell>
+          <cell r="C44" t="str">
+            <v>CLN</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="A45">
+            <v>21</v>
+          </cell>
+          <cell r="B45">
+            <v>141</v>
+          </cell>
+          <cell r="C45" t="str">
+            <v>CLN</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="A46">
+            <v>21</v>
+          </cell>
+          <cell r="B46">
+            <v>145</v>
+          </cell>
+          <cell r="C46" t="str">
+            <v>CLN</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="A47">
+            <v>21</v>
+          </cell>
+          <cell r="B47">
+            <v>147</v>
+          </cell>
+          <cell r="C47" t="str">
+            <v>CLN</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="A48">
+            <v>21</v>
+          </cell>
+          <cell r="B48">
+            <v>150</v>
+          </cell>
+          <cell r="C48" t="str">
+            <v>CLN</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="A49">
+            <v>21</v>
+          </cell>
+          <cell r="B49">
+            <v>152</v>
+          </cell>
+          <cell r="C49" t="str">
+            <v>CLN</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="A50">
+            <v>21</v>
+          </cell>
+          <cell r="B50">
+            <v>153</v>
+          </cell>
+          <cell r="C50" t="str">
+            <v>CLN</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="A51">
+            <v>21</v>
+          </cell>
+          <cell r="B51">
+            <v>155</v>
+          </cell>
+          <cell r="C51" t="str">
+            <v>CLN</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="A52">
+            <v>21</v>
+          </cell>
+          <cell r="B52">
+            <v>157</v>
+          </cell>
+          <cell r="C52" t="str">
+            <v>CLN</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="A53">
+            <v>21</v>
+          </cell>
+          <cell r="B53">
+            <v>159</v>
+          </cell>
+          <cell r="C53" t="str">
+            <v>CLN</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="A54">
+            <v>21</v>
+          </cell>
+          <cell r="B54">
+            <v>160</v>
+          </cell>
+          <cell r="C54" t="str">
+            <v>CLN</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="A55">
+            <v>21</v>
+          </cell>
+          <cell r="B55">
+            <v>161</v>
+          </cell>
+          <cell r="C55" t="str">
+            <v>CLN</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="A56">
+            <v>21</v>
+          </cell>
+          <cell r="B56">
+            <v>163</v>
+          </cell>
+          <cell r="C56" t="str">
+            <v>CLN</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="A57">
+            <v>21</v>
+          </cell>
+          <cell r="B57">
+            <v>165</v>
+          </cell>
+          <cell r="C57" t="str">
+            <v>CLN</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="A58">
+            <v>21</v>
+          </cell>
+          <cell r="B58">
+            <v>169</v>
+          </cell>
+          <cell r="C58" t="str">
+            <v>CLN</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="A59">
+            <v>21</v>
+          </cell>
+          <cell r="B59">
+            <v>171</v>
+          </cell>
+          <cell r="C59" t="str">
+            <v>CLN</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="A60">
+            <v>21</v>
+          </cell>
+          <cell r="B60">
+            <v>173</v>
+          </cell>
+          <cell r="C60" t="str">
+            <v>CLN</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="A61">
+            <v>21</v>
+          </cell>
+          <cell r="B61">
+            <v>174</v>
+          </cell>
+          <cell r="C61" t="str">
+            <v>CLN</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="A62">
+            <v>21</v>
+          </cell>
+          <cell r="B62">
+            <v>176</v>
+          </cell>
+          <cell r="C62" t="str">
+            <v>CLN</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="A63">
+            <v>21</v>
+          </cell>
+          <cell r="B63">
+            <v>178</v>
+          </cell>
+          <cell r="C63" t="str">
+            <v>CLN</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="A64">
+            <v>21</v>
+          </cell>
+          <cell r="B64">
+            <v>179</v>
+          </cell>
+          <cell r="C64" t="str">
+            <v>CLN</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="A65">
+            <v>21</v>
+          </cell>
+          <cell r="B65">
+            <v>181</v>
+          </cell>
+          <cell r="C65" t="str">
+            <v>CLN</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="A66">
+            <v>21</v>
+          </cell>
+          <cell r="B66">
+            <v>182</v>
+          </cell>
+          <cell r="C66" t="str">
+            <v>CLN</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="A67">
+            <v>21</v>
+          </cell>
+          <cell r="B67">
+            <v>187</v>
+          </cell>
+          <cell r="C67" t="str">
+            <v>CLN</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="A68">
+            <v>21</v>
+          </cell>
+          <cell r="B68">
+            <v>189</v>
+          </cell>
+          <cell r="C68" t="str">
+            <v>CLN</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="A69">
+            <v>21</v>
+          </cell>
+          <cell r="B69">
+            <v>198</v>
+          </cell>
+          <cell r="C69" t="str">
+            <v>CLN</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="A70">
+            <v>21</v>
+          </cell>
+          <cell r="B70">
+            <v>200</v>
+          </cell>
+          <cell r="C70" t="str">
+            <v>CLN</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="A71">
+            <v>21</v>
+          </cell>
+          <cell r="B71">
+            <v>205</v>
+          </cell>
+          <cell r="C71" t="str">
+            <v>CLN</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="A72">
+            <v>21</v>
+          </cell>
+          <cell r="B72">
+            <v>206</v>
+          </cell>
+          <cell r="C72" t="str">
+            <v>CLN</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="A73">
+            <v>21</v>
+          </cell>
+          <cell r="B73">
+            <v>209</v>
+          </cell>
+          <cell r="C73" t="str">
+            <v>CLN</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="A74">
+            <v>21</v>
+          </cell>
+          <cell r="B74">
+            <v>212</v>
+          </cell>
+          <cell r="C74" t="str">
+            <v>CLN</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="A75">
+            <v>21</v>
+          </cell>
+          <cell r="B75">
+            <v>215</v>
+          </cell>
+          <cell r="C75" t="str">
+            <v>CLN</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="A76">
+            <v>21</v>
+          </cell>
+          <cell r="B76">
+            <v>220</v>
+          </cell>
+          <cell r="C76" t="str">
+            <v>CLN</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="A77">
+            <v>21</v>
+          </cell>
+          <cell r="B77">
+            <v>223</v>
+          </cell>
+          <cell r="C77" t="str">
+            <v>CLN</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="A78">
+            <v>21</v>
+          </cell>
+          <cell r="B78">
+            <v>226</v>
+          </cell>
+          <cell r="C78" t="str">
+            <v>CLN</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="A79">
+            <v>21</v>
+          </cell>
+          <cell r="B79">
+            <v>227</v>
+          </cell>
+          <cell r="C79" t="str">
+            <v>CLN</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="A80">
+            <v>21</v>
+          </cell>
+          <cell r="B80">
+            <v>236</v>
+          </cell>
+          <cell r="C80" t="str">
+            <v>CLN</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="A81">
+            <v>21</v>
+          </cell>
+          <cell r="B81">
+            <v>240</v>
+          </cell>
+          <cell r="C81" t="str">
+            <v>CLN</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="A82">
+            <v>22</v>
+          </cell>
+          <cell r="B82">
+            <v>14</v>
+          </cell>
+          <cell r="C82" t="str">
+            <v>CLN</v>
+          </cell>
+        </row>
+        <row r="83">
+          <cell r="A83">
+            <v>29</v>
+          </cell>
+          <cell r="B83">
+            <v>40</v>
+          </cell>
+          <cell r="C83" t="str">
+            <v>CLN</v>
+          </cell>
+        </row>
+        <row r="84">
+          <cell r="A84">
+            <v>30</v>
+          </cell>
+          <cell r="B84">
+            <v>78</v>
+          </cell>
+          <cell r="C84" t="str">
+            <v>CLN</v>
+          </cell>
+        </row>
+        <row r="85">
+          <cell r="A85">
+            <v>32</v>
+          </cell>
+          <cell r="B85">
+            <v>119</v>
+          </cell>
+          <cell r="C85" t="str">
+            <v>CLN</v>
+          </cell>
+        </row>
+        <row r="86">
+          <cell r="A86">
+            <v>38</v>
+          </cell>
+          <cell r="B86">
+            <v>93</v>
+          </cell>
+          <cell r="C86" t="str">
+            <v>CLN</v>
+          </cell>
+        </row>
+        <row r="87">
+          <cell r="A87">
+            <v>38</v>
+          </cell>
+          <cell r="B87">
+            <v>109</v>
+          </cell>
+          <cell r="C87" t="str">
+            <v>CLN</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5422,8 +6398,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G89"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView topLeftCell="A74" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <selection activeCell="D89" sqref="D89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7577,7 +8553,7 @@
   </sheetPr>
   <dimension ref="A1:H243"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -14251,8 +15227,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J306"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A226" workbookViewId="0">
+      <selection activeCell="J155" sqref="J155:J163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -16244,7 +17220,7 @@
         <v>NQ10_6974</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65">
         <f>IF(B65&lt;&gt;"", SUBTOTAL(3, $B$2:B65), "")</f>
         <v>64</v>
@@ -16275,7 +17251,7 @@
         <v>NQ10_6974</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66">
         <f>IF(B66&lt;&gt;"", SUBTOTAL(3, $B$2:B66), "")</f>
         <v>65</v>
@@ -16306,7 +17282,7 @@
         <v>NQ10_6974</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67">
         <f>IF(B67&lt;&gt;"", SUBTOTAL(3, $B$2:B67), "")</f>
         <v>66</v>
@@ -16337,7 +17313,7 @@
         <v>NQ10_6974</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68">
         <f>IF(B68&lt;&gt;"", SUBTOTAL(3, $B$2:B68), "")</f>
         <v>67</v>
@@ -16368,7 +17344,7 @@
         <v>NQ10_4569</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69">
         <f>IF(B69&lt;&gt;"", SUBTOTAL(3, $B$2:B69), "")</f>
         <v>68</v>
@@ -16399,7 +17375,7 @@
         <v>NQ10_4569</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70">
         <f>IF(B70&lt;&gt;"", SUBTOTAL(3, $B$2:B70), "")</f>
         <v>69</v>
@@ -16430,7 +17406,7 @@
         <v>NQ10_4569</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71">
         <f>IF(B71&lt;&gt;"", SUBTOTAL(3, $B$2:B71), "")</f>
         <v>70</v>
@@ -16461,7 +17437,7 @@
         <v>NQ10_4569</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72">
         <f>IF(B72&lt;&gt;"", SUBTOTAL(3, $B$2:B72), "")</f>
         <v>71</v>
@@ -16492,7 +17468,7 @@
         <v>NQ10_4569</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73">
         <f>IF(B73&lt;&gt;"", SUBTOTAL(3, $B$2:B73), "")</f>
         <v>72</v>
@@ -16523,7 +17499,7 @@
         <v>NQ10_4569</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74">
         <f>IF(B74&lt;&gt;"", SUBTOTAL(3, $B$2:B74), "")</f>
         <v>73</v>
@@ -16554,7 +17530,7 @@
         <v>NQ10_4569</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75">
         <f>IF(B75&lt;&gt;"", SUBTOTAL(3, $B$2:B75), "")</f>
         <v>74</v>
@@ -16585,7 +17561,7 @@
         <v>NQ10_4569</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76">
         <f>IF(B76&lt;&gt;"", SUBTOTAL(3, $B$2:B76), "")</f>
         <v>75</v>
@@ -16616,7 +17592,7 @@
         <v>NQ10_4569</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77">
         <f>IF(B77&lt;&gt;"", SUBTOTAL(3, $B$2:B77), "")</f>
         <v>76</v>
@@ -16646,8 +17622,12 @@
         <f t="array" ref="I77">IFERROR(INDEX('TONG DA XLY'!$H$2:$H$243, MATCH(1, ('TONG DA XLY'!$D$2:$D$243=D77)*('TONG DA XLY'!$E$2:$E$243=E77), 0)),"")</f>
         <v>KDDK NQ10</v>
       </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J77" t="str">
+        <f t="array" ref="J77">IFERROR(INDEX([1]Sheet1!$C$2:$C$87, MATCH(1, ([1]Sheet1!$A$2:$A$87=D77)*([1]Sheet1!$B$2:$B$87=E77), 0)),"")</f>
+        <v>CLN</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78">
         <f>IF(B78&lt;&gt;"", SUBTOTAL(3, $B$2:B78), "")</f>
         <v>77</v>
@@ -16677,8 +17657,12 @@
         <f t="array" ref="I78">IFERROR(INDEX('TONG DA XLY'!$H$2:$H$243, MATCH(1, ('TONG DA XLY'!$D$2:$D$243=D78)*('TONG DA XLY'!$E$2:$E$243=E78), 0)),"")</f>
         <v>KDDK NQ10</v>
       </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J78" t="str">
+        <f t="array" ref="J78">IFERROR(INDEX([1]Sheet1!$C$2:$C$87, MATCH(1, ([1]Sheet1!$A$2:$A$87=D78)*([1]Sheet1!$B$2:$B$87=E78), 0)),"")</f>
+        <v>CLN</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79">
         <f>IF(B79&lt;&gt;"", SUBTOTAL(3, $B$2:B79), "")</f>
         <v>78</v>
@@ -16708,8 +17692,12 @@
         <f t="array" ref="I79">IFERROR(INDEX('TONG DA XLY'!$H$2:$H$243, MATCH(1, ('TONG DA XLY'!$D$2:$D$243=D79)*('TONG DA XLY'!$E$2:$E$243=E79), 0)),"")</f>
         <v>KDDK NQ10</v>
       </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J79" t="str">
+        <f t="array" ref="J79">IFERROR(INDEX([1]Sheet1!$C$2:$C$87, MATCH(1, ([1]Sheet1!$A$2:$A$87=D79)*([1]Sheet1!$B$2:$B$87=E79), 0)),"")</f>
+        <v>CLN</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80">
         <f>IF(B80&lt;&gt;"", SUBTOTAL(3, $B$2:B80), "")</f>
         <v>79</v>
@@ -16739,8 +17727,12 @@
         <f t="array" ref="I80">IFERROR(INDEX('TONG DA XLY'!$H$2:$H$243, MATCH(1, ('TONG DA XLY'!$D$2:$D$243=D80)*('TONG DA XLY'!$E$2:$E$243=E80), 0)),"")</f>
         <v>KDDK NQ10</v>
       </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J80" t="str">
+        <f t="array" ref="J80">IFERROR(INDEX([1]Sheet1!$C$2:$C$87, MATCH(1, ([1]Sheet1!$A$2:$A$87=D80)*([1]Sheet1!$B$2:$B$87=E80), 0)),"")</f>
+        <v>CLN</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81">
         <f>IF(B81&lt;&gt;"", SUBTOTAL(3, $B$2:B81), "")</f>
         <v>80</v>
@@ -16770,8 +17762,12 @@
         <f t="array" ref="I81">IFERROR(INDEX('TONG DA XLY'!$H$2:$H$243, MATCH(1, ('TONG DA XLY'!$D$2:$D$243=D81)*('TONG DA XLY'!$E$2:$E$243=E81), 0)),"")</f>
         <v>KDDK NQ10</v>
       </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J81" t="str">
+        <f t="array" ref="J81">IFERROR(INDEX([1]Sheet1!$C$2:$C$87, MATCH(1, ([1]Sheet1!$A$2:$A$87=D81)*([1]Sheet1!$B$2:$B$87=E81), 0)),"")</f>
+        <v>CLN</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82">
         <f>IF(B82&lt;&gt;"", SUBTOTAL(3, $B$2:B82), "")</f>
         <v>81</v>
@@ -16801,8 +17797,12 @@
         <f t="array" ref="I82">IFERROR(INDEX('TONG DA XLY'!$H$2:$H$243, MATCH(1, ('TONG DA XLY'!$D$2:$D$243=D82)*('TONG DA XLY'!$E$2:$E$243=E82), 0)),"")</f>
         <v>KDDK NQ10</v>
       </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J82" t="str">
+        <f t="array" ref="J82">IFERROR(INDEX([1]Sheet1!$C$2:$C$87, MATCH(1, ([1]Sheet1!$A$2:$A$87=D82)*([1]Sheet1!$B$2:$B$87=E82), 0)),"")</f>
+        <v>CLN</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83">
         <f>IF(B83&lt;&gt;"", SUBTOTAL(3, $B$2:B83), "")</f>
         <v>82</v>
@@ -16832,8 +17832,12 @@
         <f t="array" ref="I83">IFERROR(INDEX('TONG DA XLY'!$H$2:$H$243, MATCH(1, ('TONG DA XLY'!$D$2:$D$243=D83)*('TONG DA XLY'!$E$2:$E$243=E83), 0)),"")</f>
         <v>KDDK NQ10</v>
       </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J83" t="str">
+        <f t="array" ref="J83">IFERROR(INDEX([1]Sheet1!$C$2:$C$87, MATCH(1, ([1]Sheet1!$A$2:$A$87=D83)*([1]Sheet1!$B$2:$B$87=E83), 0)),"")</f>
+        <v>CLN</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84">
         <f>IF(B84&lt;&gt;"", SUBTOTAL(3, $B$2:B84), "")</f>
         <v>83</v>
@@ -16863,8 +17867,12 @@
         <f t="array" ref="I84">IFERROR(INDEX('TONG DA XLY'!$H$2:$H$243, MATCH(1, ('TONG DA XLY'!$D$2:$D$243=D84)*('TONG DA XLY'!$E$2:$E$243=E84), 0)),"")</f>
         <v>KDDK NQ10</v>
       </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J84" t="str">
+        <f t="array" ref="J84">IFERROR(INDEX([1]Sheet1!$C$2:$C$87, MATCH(1, ([1]Sheet1!$A$2:$A$87=D84)*([1]Sheet1!$B$2:$B$87=E84), 0)),"")</f>
+        <v>CLN</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85">
         <f>IF(B85&lt;&gt;"", SUBTOTAL(3, $B$2:B85), "")</f>
         <v>84</v>
@@ -16894,8 +17902,12 @@
         <f t="array" ref="I85">IFERROR(INDEX('TONG DA XLY'!$H$2:$H$243, MATCH(1, ('TONG DA XLY'!$D$2:$D$243=D85)*('TONG DA XLY'!$E$2:$E$243=E85), 0)),"")</f>
         <v>KDDK NQ10</v>
       </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J85" t="str">
+        <f t="array" ref="J85">IFERROR(INDEX([1]Sheet1!$C$2:$C$87, MATCH(1, ([1]Sheet1!$A$2:$A$87=D85)*([1]Sheet1!$B$2:$B$87=E85), 0)),"")</f>
+        <v>CLN</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86">
         <f>IF(B86&lt;&gt;"", SUBTOTAL(3, $B$2:B86), "")</f>
         <v>85</v>
@@ -16925,8 +17937,12 @@
         <f t="array" ref="I86">IFERROR(INDEX('TONG DA XLY'!$H$2:$H$243, MATCH(1, ('TONG DA XLY'!$D$2:$D$243=D86)*('TONG DA XLY'!$E$2:$E$243=E86), 0)),"")</f>
         <v>KDDK NQ10</v>
       </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J86" t="str">
+        <f t="array" ref="J86">IFERROR(INDEX([1]Sheet1!$C$2:$C$87, MATCH(1, ([1]Sheet1!$A$2:$A$87=D86)*([1]Sheet1!$B$2:$B$87=E86), 0)),"")</f>
+        <v>CLN</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87">
         <f>IF(B87&lt;&gt;"", SUBTOTAL(3, $B$2:B87), "")</f>
         <v>86</v>
@@ -16956,8 +17972,12 @@
         <f t="array" ref="I87">IFERROR(INDEX('TONG DA XLY'!$H$2:$H$243, MATCH(1, ('TONG DA XLY'!$D$2:$D$243=D87)*('TONG DA XLY'!$E$2:$E$243=E87), 0)),"")</f>
         <v>KDDK NQ10</v>
       </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J87" t="str">
+        <f t="array" ref="J87">IFERROR(INDEX([1]Sheet1!$C$2:$C$87, MATCH(1, ([1]Sheet1!$A$2:$A$87=D87)*([1]Sheet1!$B$2:$B$87=E87), 0)),"")</f>
+        <v>CLN</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88">
         <f>IF(B88&lt;&gt;"", SUBTOTAL(3, $B$2:B88), "")</f>
         <v>87</v>
@@ -16987,8 +18007,12 @@
         <f t="array" ref="I88">IFERROR(INDEX('TONG DA XLY'!$H$2:$H$243, MATCH(1, ('TONG DA XLY'!$D$2:$D$243=D88)*('TONG DA XLY'!$E$2:$E$243=E88), 0)),"")</f>
         <v>KDDK NQ10</v>
       </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J88" t="str">
+        <f t="array" ref="J88">IFERROR(INDEX([1]Sheet1!$C$2:$C$87, MATCH(1, ([1]Sheet1!$A$2:$A$87=D88)*([1]Sheet1!$B$2:$B$87=E88), 0)),"")</f>
+        <v>CLN</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89">
         <f>IF(B89&lt;&gt;"", SUBTOTAL(3, $B$2:B89), "")</f>
         <v>88</v>
@@ -17018,8 +18042,12 @@
         <f t="array" ref="I89">IFERROR(INDEX('TONG DA XLY'!$H$2:$H$243, MATCH(1, ('TONG DA XLY'!$D$2:$D$243=D89)*('TONG DA XLY'!$E$2:$E$243=E89), 0)),"")</f>
         <v>KDDK NQ10</v>
       </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J89" t="str">
+        <f t="array" ref="J89">IFERROR(INDEX([1]Sheet1!$C$2:$C$87, MATCH(1, ([1]Sheet1!$A$2:$A$87=D89)*([1]Sheet1!$B$2:$B$87=E89), 0)),"")</f>
+        <v>CLN</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90">
         <f>IF(B90&lt;&gt;"", SUBTOTAL(3, $B$2:B90), "")</f>
         <v>89</v>
@@ -17049,8 +18077,12 @@
         <f t="array" ref="I90">IFERROR(INDEX('TONG DA XLY'!$H$2:$H$243, MATCH(1, ('TONG DA XLY'!$D$2:$D$243=D90)*('TONG DA XLY'!$E$2:$E$243=E90), 0)),"")</f>
         <v>KDDK NQ10</v>
       </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J90" t="str">
+        <f t="array" ref="J90">IFERROR(INDEX([1]Sheet1!$C$2:$C$87, MATCH(1, ([1]Sheet1!$A$2:$A$87=D90)*([1]Sheet1!$B$2:$B$87=E90), 0)),"")</f>
+        <v>CLN</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91">
         <f>IF(B91&lt;&gt;"", SUBTOTAL(3, $B$2:B91), "")</f>
         <v>90</v>
@@ -17080,8 +18112,12 @@
         <f t="array" ref="I91">IFERROR(INDEX('TONG DA XLY'!$H$2:$H$243, MATCH(1, ('TONG DA XLY'!$D$2:$D$243=D91)*('TONG DA XLY'!$E$2:$E$243=E91), 0)),"")</f>
         <v>KDDK NQ10</v>
       </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J91" t="str">
+        <f t="array" ref="J91">IFERROR(INDEX([1]Sheet1!$C$2:$C$87, MATCH(1, ([1]Sheet1!$A$2:$A$87=D91)*([1]Sheet1!$B$2:$B$87=E91), 0)),"")</f>
+        <v>CLN</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92">
         <f>IF(B92&lt;&gt;"", SUBTOTAL(3, $B$2:B92), "")</f>
         <v>91</v>
@@ -17111,8 +18147,12 @@
         <f t="array" ref="I92">IFERROR(INDEX('TONG DA XLY'!$H$2:$H$243, MATCH(1, ('TONG DA XLY'!$D$2:$D$243=D92)*('TONG DA XLY'!$E$2:$E$243=E92), 0)),"")</f>
         <v>KDDK NQ10</v>
       </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J92" t="str">
+        <f t="array" ref="J92">IFERROR(INDEX([1]Sheet1!$C$2:$C$87, MATCH(1, ([1]Sheet1!$A$2:$A$87=D92)*([1]Sheet1!$B$2:$B$87=E92), 0)),"")</f>
+        <v>CLN</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93">
         <f>IF(B93&lt;&gt;"", SUBTOTAL(3, $B$2:B93), "")</f>
         <v>92</v>
@@ -17142,8 +18182,12 @@
         <f t="array" ref="I93">IFERROR(INDEX('TONG DA XLY'!$H$2:$H$243, MATCH(1, ('TONG DA XLY'!$D$2:$D$243=D93)*('TONG DA XLY'!$E$2:$E$243=E93), 0)),"")</f>
         <v>KDDK NQ10</v>
       </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J93" t="str">
+        <f t="array" ref="J93">IFERROR(INDEX([1]Sheet1!$C$2:$C$87, MATCH(1, ([1]Sheet1!$A$2:$A$87=D93)*([1]Sheet1!$B$2:$B$87=E93), 0)),"")</f>
+        <v>CLN</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94">
         <f>IF(B94&lt;&gt;"", SUBTOTAL(3, $B$2:B94), "")</f>
         <v>93</v>
@@ -17173,8 +18217,12 @@
         <f t="array" ref="I94">IFERROR(INDEX('TONG DA XLY'!$H$2:$H$243, MATCH(1, ('TONG DA XLY'!$D$2:$D$243=D94)*('TONG DA XLY'!$E$2:$E$243=E94), 0)),"")</f>
         <v>KDDK NQ10</v>
       </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J94" t="str">
+        <f t="array" ref="J94">IFERROR(INDEX([1]Sheet1!$C$2:$C$87, MATCH(1, ([1]Sheet1!$A$2:$A$87=D94)*([1]Sheet1!$B$2:$B$87=E94), 0)),"")</f>
+        <v>CLN</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95">
         <f>IF(B95&lt;&gt;"", SUBTOTAL(3, $B$2:B95), "")</f>
         <v>94</v>
@@ -17204,8 +18252,12 @@
         <f t="array" ref="I95">IFERROR(INDEX('TONG DA XLY'!$H$2:$H$243, MATCH(1, ('TONG DA XLY'!$D$2:$D$243=D95)*('TONG DA XLY'!$E$2:$E$243=E95), 0)),"")</f>
         <v>KDDK NQ10</v>
       </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J95" t="str">
+        <f t="array" ref="J95">IFERROR(INDEX([1]Sheet1!$C$2:$C$87, MATCH(1, ([1]Sheet1!$A$2:$A$87=D95)*([1]Sheet1!$B$2:$B$87=E95), 0)),"")</f>
+        <v>CLN</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96">
         <f>IF(B96&lt;&gt;"", SUBTOTAL(3, $B$2:B96), "")</f>
         <v>95</v>
@@ -17235,8 +18287,12 @@
         <f t="array" ref="I96">IFERROR(INDEX('TONG DA XLY'!$H$2:$H$243, MATCH(1, ('TONG DA XLY'!$D$2:$D$243=D96)*('TONG DA XLY'!$E$2:$E$243=E96), 0)),"")</f>
         <v>KDDK NQ10</v>
       </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J96" t="str">
+        <f t="array" ref="J96">IFERROR(INDEX([1]Sheet1!$C$2:$C$87, MATCH(1, ([1]Sheet1!$A$2:$A$87=D96)*([1]Sheet1!$B$2:$B$87=E96), 0)),"")</f>
+        <v>CLN</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97">
         <f>IF(B97&lt;&gt;"", SUBTOTAL(3, $B$2:B97), "")</f>
         <v>96</v>
@@ -17266,8 +18322,12 @@
         <f t="array" ref="I97">IFERROR(INDEX('TONG DA XLY'!$H$2:$H$243, MATCH(1, ('TONG DA XLY'!$D$2:$D$243=D97)*('TONG DA XLY'!$E$2:$E$243=E97), 0)),"")</f>
         <v>KDDK NQ10</v>
       </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J97" t="str">
+        <f t="array" ref="J97">IFERROR(INDEX([1]Sheet1!$C$2:$C$87, MATCH(1, ([1]Sheet1!$A$2:$A$87=D97)*([1]Sheet1!$B$2:$B$87=E97), 0)),"")</f>
+        <v>CLN</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98">
         <f>IF(B98&lt;&gt;"", SUBTOTAL(3, $B$2:B98), "")</f>
         <v>97</v>
@@ -17297,8 +18357,12 @@
         <f t="array" ref="I98">IFERROR(INDEX('TONG DA XLY'!$H$2:$H$243, MATCH(1, ('TONG DA XLY'!$D$2:$D$243=D98)*('TONG DA XLY'!$E$2:$E$243=E98), 0)),"")</f>
         <v>KDDK NQ10</v>
       </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J98" t="str">
+        <f t="array" ref="J98">IFERROR(INDEX([1]Sheet1!$C$2:$C$87, MATCH(1, ([1]Sheet1!$A$2:$A$87=D98)*([1]Sheet1!$B$2:$B$87=E98), 0)),"")</f>
+        <v>CLN</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99">
         <f>IF(B99&lt;&gt;"", SUBTOTAL(3, $B$2:B99), "")</f>
         <v>98</v>
@@ -17328,8 +18392,12 @@
         <f t="array" ref="I99">IFERROR(INDEX('TONG DA XLY'!$H$2:$H$243, MATCH(1, ('TONG DA XLY'!$D$2:$D$243=D99)*('TONG DA XLY'!$E$2:$E$243=E99), 0)),"")</f>
         <v>KDDK NQ10</v>
       </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J99" t="str">
+        <f t="array" ref="J99">IFERROR(INDEX([1]Sheet1!$C$2:$C$87, MATCH(1, ([1]Sheet1!$A$2:$A$87=D99)*([1]Sheet1!$B$2:$B$87=E99), 0)),"")</f>
+        <v>CLN</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100">
         <f>IF(B100&lt;&gt;"", SUBTOTAL(3, $B$2:B100), "")</f>
         <v>99</v>
@@ -17359,8 +18427,12 @@
         <f t="array" ref="I100">IFERROR(INDEX('TONG DA XLY'!$H$2:$H$243, MATCH(1, ('TONG DA XLY'!$D$2:$D$243=D100)*('TONG DA XLY'!$E$2:$E$243=E100), 0)),"")</f>
         <v>KDDK NQ10</v>
       </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J100" t="str">
+        <f t="array" ref="J100">IFERROR(INDEX([1]Sheet1!$C$2:$C$87, MATCH(1, ([1]Sheet1!$A$2:$A$87=D100)*([1]Sheet1!$B$2:$B$87=E100), 0)),"")</f>
+        <v>CLN</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101">
         <f>IF(B101&lt;&gt;"", SUBTOTAL(3, $B$2:B101), "")</f>
         <v>100</v>
@@ -17390,8 +18462,12 @@
         <f t="array" ref="I101">IFERROR(INDEX('TONG DA XLY'!$H$2:$H$243, MATCH(1, ('TONG DA XLY'!$D$2:$D$243=D101)*('TONG DA XLY'!$E$2:$E$243=E101), 0)),"")</f>
         <v>KDDK NQ10</v>
       </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J101" t="str">
+        <f t="array" ref="J101">IFERROR(INDEX([1]Sheet1!$C$2:$C$87, MATCH(1, ([1]Sheet1!$A$2:$A$87=D101)*([1]Sheet1!$B$2:$B$87=E101), 0)),"")</f>
+        <v>CLN</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102">
         <f>IF(B102&lt;&gt;"", SUBTOTAL(3, $B$2:B102), "")</f>
         <v>101</v>
@@ -17421,8 +18497,12 @@
         <f t="array" ref="I102">IFERROR(INDEX('TONG DA XLY'!$H$2:$H$243, MATCH(1, ('TONG DA XLY'!$D$2:$D$243=D102)*('TONG DA XLY'!$E$2:$E$243=E102), 0)),"")</f>
         <v>KDDK NQ10</v>
       </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J102" t="str">
+        <f t="array" ref="J102">IFERROR(INDEX([1]Sheet1!$C$2:$C$87, MATCH(1, ([1]Sheet1!$A$2:$A$87=D102)*([1]Sheet1!$B$2:$B$87=E102), 0)),"")</f>
+        <v>CLN</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103">
         <f>IF(B103&lt;&gt;"", SUBTOTAL(3, $B$2:B103), "")</f>
         <v>102</v>
@@ -17452,8 +18532,12 @@
         <f t="array" ref="I103">IFERROR(INDEX('TONG DA XLY'!$H$2:$H$243, MATCH(1, ('TONG DA XLY'!$D$2:$D$243=D103)*('TONG DA XLY'!$E$2:$E$243=E103), 0)),"")</f>
         <v>KDDK NQ10</v>
       </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J103" t="str">
+        <f t="array" ref="J103">IFERROR(INDEX([1]Sheet1!$C$2:$C$87, MATCH(1, ([1]Sheet1!$A$2:$A$87=D103)*([1]Sheet1!$B$2:$B$87=E103), 0)),"")</f>
+        <v>CLN</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104">
         <f>IF(B104&lt;&gt;"", SUBTOTAL(3, $B$2:B104), "")</f>
         <v>103</v>
@@ -17483,8 +18567,12 @@
         <f t="array" ref="I104">IFERROR(INDEX('TONG DA XLY'!$H$2:$H$243, MATCH(1, ('TONG DA XLY'!$D$2:$D$243=D104)*('TONG DA XLY'!$E$2:$E$243=E104), 0)),"")</f>
         <v>KDDK NQ10</v>
       </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J104" t="str">
+        <f t="array" ref="J104">IFERROR(INDEX([1]Sheet1!$C$2:$C$87, MATCH(1, ([1]Sheet1!$A$2:$A$87=D104)*([1]Sheet1!$B$2:$B$87=E104), 0)),"")</f>
+        <v>CLN</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105">
         <f>IF(B105&lt;&gt;"", SUBTOTAL(3, $B$2:B105), "")</f>
         <v>104</v>
@@ -17514,8 +18602,12 @@
         <f t="array" ref="I105">IFERROR(INDEX('TONG DA XLY'!$H$2:$H$243, MATCH(1, ('TONG DA XLY'!$D$2:$D$243=D105)*('TONG DA XLY'!$E$2:$E$243=E105), 0)),"")</f>
         <v>KDDK NQ10</v>
       </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J105" t="str">
+        <f t="array" ref="J105">IFERROR(INDEX([1]Sheet1!$C$2:$C$87, MATCH(1, ([1]Sheet1!$A$2:$A$87=D105)*([1]Sheet1!$B$2:$B$87=E105), 0)),"")</f>
+        <v>CLN</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106">
         <f>IF(B106&lt;&gt;"", SUBTOTAL(3, $B$2:B106), "")</f>
         <v>105</v>
@@ -17545,8 +18637,12 @@
         <f t="array" ref="I106">IFERROR(INDEX('TONG DA XLY'!$H$2:$H$243, MATCH(1, ('TONG DA XLY'!$D$2:$D$243=D106)*('TONG DA XLY'!$E$2:$E$243=E106), 0)),"")</f>
         <v>KDDK NQ10</v>
       </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J106" t="str">
+        <f t="array" ref="J106">IFERROR(INDEX([1]Sheet1!$C$2:$C$87, MATCH(1, ([1]Sheet1!$A$2:$A$87=D106)*([1]Sheet1!$B$2:$B$87=E106), 0)),"")</f>
+        <v>CLN</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107">
         <f>IF(B107&lt;&gt;"", SUBTOTAL(3, $B$2:B107), "")</f>
         <v>106</v>
@@ -17576,8 +18672,12 @@
         <f t="array" ref="I107">IFERROR(INDEX('TONG DA XLY'!$H$2:$H$243, MATCH(1, ('TONG DA XLY'!$D$2:$D$243=D107)*('TONG DA XLY'!$E$2:$E$243=E107), 0)),"")</f>
         <v>KDDK NQ10</v>
       </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J107" t="str">
+        <f t="array" ref="J107">IFERROR(INDEX([1]Sheet1!$C$2:$C$87, MATCH(1, ([1]Sheet1!$A$2:$A$87=D107)*([1]Sheet1!$B$2:$B$87=E107), 0)),"")</f>
+        <v>CLN</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108">
         <f>IF(B108&lt;&gt;"", SUBTOTAL(3, $B$2:B108), "")</f>
         <v>107</v>
@@ -17607,8 +18707,12 @@
         <f t="array" ref="I108">IFERROR(INDEX('TONG DA XLY'!$H$2:$H$243, MATCH(1, ('TONG DA XLY'!$D$2:$D$243=D108)*('TONG DA XLY'!$E$2:$E$243=E108), 0)),"")</f>
         <v>KDDK NQ10</v>
       </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J108" t="str">
+        <f t="array" ref="J108">IFERROR(INDEX([1]Sheet1!$C$2:$C$87, MATCH(1, ([1]Sheet1!$A$2:$A$87=D108)*([1]Sheet1!$B$2:$B$87=E108), 0)),"")</f>
+        <v>CLN</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109">
         <f>IF(B109&lt;&gt;"", SUBTOTAL(3, $B$2:B109), "")</f>
         <v>108</v>
@@ -17638,8 +18742,12 @@
         <f t="array" ref="I109">IFERROR(INDEX('TONG DA XLY'!$H$2:$H$243, MATCH(1, ('TONG DA XLY'!$D$2:$D$243=D109)*('TONG DA XLY'!$E$2:$E$243=E109), 0)),"")</f>
         <v>KDDK NQ10</v>
       </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J109" t="str">
+        <f t="array" ref="J109">IFERROR(INDEX([1]Sheet1!$C$2:$C$87, MATCH(1, ([1]Sheet1!$A$2:$A$87=D109)*([1]Sheet1!$B$2:$B$87=E109), 0)),"")</f>
+        <v>CLN</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110">
         <f>IF(B110&lt;&gt;"", SUBTOTAL(3, $B$2:B110), "")</f>
         <v>109</v>
@@ -17669,8 +18777,12 @@
         <f t="array" ref="I110">IFERROR(INDEX('TONG DA XLY'!$H$2:$H$243, MATCH(1, ('TONG DA XLY'!$D$2:$D$243=D110)*('TONG DA XLY'!$E$2:$E$243=E110), 0)),"")</f>
         <v>KDDK NQ10</v>
       </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J110" t="str">
+        <f t="array" ref="J110">IFERROR(INDEX([1]Sheet1!$C$2:$C$87, MATCH(1, ([1]Sheet1!$A$2:$A$87=D110)*([1]Sheet1!$B$2:$B$87=E110), 0)),"")</f>
+        <v>CLN</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111">
         <f>IF(B111&lt;&gt;"", SUBTOTAL(3, $B$2:B111), "")</f>
         <v>110</v>
@@ -17700,8 +18812,12 @@
         <f t="array" ref="I111">IFERROR(INDEX('TONG DA XLY'!$H$2:$H$243, MATCH(1, ('TONG DA XLY'!$D$2:$D$243=D111)*('TONG DA XLY'!$E$2:$E$243=E111), 0)),"")</f>
         <v>KDDK NQ10</v>
       </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J111" t="str">
+        <f t="array" ref="J111">IFERROR(INDEX([1]Sheet1!$C$2:$C$87, MATCH(1, ([1]Sheet1!$A$2:$A$87=D111)*([1]Sheet1!$B$2:$B$87=E111), 0)),"")</f>
+        <v>CLN</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112">
         <f>IF(B112&lt;&gt;"", SUBTOTAL(3, $B$2:B112), "")</f>
         <v>111</v>
@@ -17731,8 +18847,12 @@
         <f t="array" ref="I112">IFERROR(INDEX('TONG DA XLY'!$H$2:$H$243, MATCH(1, ('TONG DA XLY'!$D$2:$D$243=D112)*('TONG DA XLY'!$E$2:$E$243=E112), 0)),"")</f>
         <v>KDDK NQ10</v>
       </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J112" t="str">
+        <f t="array" ref="J112">IFERROR(INDEX([1]Sheet1!$C$2:$C$87, MATCH(1, ([1]Sheet1!$A$2:$A$87=D112)*([1]Sheet1!$B$2:$B$87=E112), 0)),"")</f>
+        <v>CLN</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113">
         <f>IF(B113&lt;&gt;"", SUBTOTAL(3, $B$2:B113), "")</f>
         <v>112</v>
@@ -17762,8 +18882,12 @@
         <f t="array" ref="I113">IFERROR(INDEX('TONG DA XLY'!$H$2:$H$243, MATCH(1, ('TONG DA XLY'!$D$2:$D$243=D113)*('TONG DA XLY'!$E$2:$E$243=E113), 0)),"")</f>
         <v>KDDK NQ10</v>
       </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J113" t="str">
+        <f t="array" ref="J113">IFERROR(INDEX([1]Sheet1!$C$2:$C$87, MATCH(1, ([1]Sheet1!$A$2:$A$87=D113)*([1]Sheet1!$B$2:$B$87=E113), 0)),"")</f>
+        <v>CLN</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114">
         <f>IF(B114&lt;&gt;"", SUBTOTAL(3, $B$2:B114), "")</f>
         <v>113</v>
@@ -17793,8 +18917,12 @@
         <f t="array" ref="I114">IFERROR(INDEX('TONG DA XLY'!$H$2:$H$243, MATCH(1, ('TONG DA XLY'!$D$2:$D$243=D114)*('TONG DA XLY'!$E$2:$E$243=E114), 0)),"")</f>
         <v>KDDK NQ10</v>
       </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J114" t="str">
+        <f t="array" ref="J114">IFERROR(INDEX([1]Sheet1!$C$2:$C$87, MATCH(1, ([1]Sheet1!$A$2:$A$87=D114)*([1]Sheet1!$B$2:$B$87=E114), 0)),"")</f>
+        <v>CLN</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115">
         <f>IF(B115&lt;&gt;"", SUBTOTAL(3, $B$2:B115), "")</f>
         <v>114</v>
@@ -17824,8 +18952,12 @@
         <f t="array" ref="I115">IFERROR(INDEX('TONG DA XLY'!$H$2:$H$243, MATCH(1, ('TONG DA XLY'!$D$2:$D$243=D115)*('TONG DA XLY'!$E$2:$E$243=E115), 0)),"")</f>
         <v>KDDK NQ10</v>
       </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J115" t="str">
+        <f t="array" ref="J115">IFERROR(INDEX([1]Sheet1!$C$2:$C$87, MATCH(1, ([1]Sheet1!$A$2:$A$87=D115)*([1]Sheet1!$B$2:$B$87=E115), 0)),"")</f>
+        <v>CLN</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116">
         <f>IF(B116&lt;&gt;"", SUBTOTAL(3, $B$2:B116), "")</f>
         <v>115</v>
@@ -17855,8 +18987,12 @@
         <f t="array" ref="I116">IFERROR(INDEX('TONG DA XLY'!$H$2:$H$243, MATCH(1, ('TONG DA XLY'!$D$2:$D$243=D116)*('TONG DA XLY'!$E$2:$E$243=E116), 0)),"")</f>
         <v>KDDK NQ10</v>
       </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J116" t="str">
+        <f t="array" ref="J116">IFERROR(INDEX([1]Sheet1!$C$2:$C$87, MATCH(1, ([1]Sheet1!$A$2:$A$87=D116)*([1]Sheet1!$B$2:$B$87=E116), 0)),"")</f>
+        <v>CLN</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117">
         <f>IF(B117&lt;&gt;"", SUBTOTAL(3, $B$2:B117), "")</f>
         <v>116</v>
@@ -17886,8 +19022,12 @@
         <f t="array" ref="I117">IFERROR(INDEX('TONG DA XLY'!$H$2:$H$243, MATCH(1, ('TONG DA XLY'!$D$2:$D$243=D117)*('TONG DA XLY'!$E$2:$E$243=E117), 0)),"")</f>
         <v>KDDK NQ10</v>
       </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J117" t="str">
+        <f t="array" ref="J117">IFERROR(INDEX([1]Sheet1!$C$2:$C$87, MATCH(1, ([1]Sheet1!$A$2:$A$87=D117)*([1]Sheet1!$B$2:$B$87=E117), 0)),"")</f>
+        <v>CLN</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118">
         <f>IF(B118&lt;&gt;"", SUBTOTAL(3, $B$2:B118), "")</f>
         <v>117</v>
@@ -17917,8 +19057,12 @@
         <f t="array" ref="I118">IFERROR(INDEX('TONG DA XLY'!$H$2:$H$243, MATCH(1, ('TONG DA XLY'!$D$2:$D$243=D118)*('TONG DA XLY'!$E$2:$E$243=E118), 0)),"")</f>
         <v>KDDK NQ10</v>
       </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J118" t="str">
+        <f t="array" ref="J118">IFERROR(INDEX([1]Sheet1!$C$2:$C$87, MATCH(1, ([1]Sheet1!$A$2:$A$87=D118)*([1]Sheet1!$B$2:$B$87=E118), 0)),"")</f>
+        <v>CLN</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119">
         <f>IF(B119&lt;&gt;"", SUBTOTAL(3, $B$2:B119), "")</f>
         <v>118</v>
@@ -17948,8 +19092,12 @@
         <f t="array" ref="I119">IFERROR(INDEX('TONG DA XLY'!$H$2:$H$243, MATCH(1, ('TONG DA XLY'!$D$2:$D$243=D119)*('TONG DA XLY'!$E$2:$E$243=E119), 0)),"")</f>
         <v>KDDK NQ10</v>
       </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J119" t="str">
+        <f t="array" ref="J119">IFERROR(INDEX([1]Sheet1!$C$2:$C$87, MATCH(1, ([1]Sheet1!$A$2:$A$87=D119)*([1]Sheet1!$B$2:$B$87=E119), 0)),"")</f>
+        <v>CLN</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120">
         <f>IF(B120&lt;&gt;"", SUBTOTAL(3, $B$2:B120), "")</f>
         <v>119</v>
@@ -17979,8 +19127,12 @@
         <f t="array" ref="I120">IFERROR(INDEX('TONG DA XLY'!$H$2:$H$243, MATCH(1, ('TONG DA XLY'!$D$2:$D$243=D120)*('TONG DA XLY'!$E$2:$E$243=E120), 0)),"")</f>
         <v>KDDK NQ10</v>
       </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J120" t="str">
+        <f t="array" ref="J120">IFERROR(INDEX([1]Sheet1!$C$2:$C$87, MATCH(1, ([1]Sheet1!$A$2:$A$87=D120)*([1]Sheet1!$B$2:$B$87=E120), 0)),"")</f>
+        <v>CLN</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121">
         <f>IF(B121&lt;&gt;"", SUBTOTAL(3, $B$2:B121), "")</f>
         <v>120</v>
@@ -18010,8 +19162,12 @@
         <f t="array" ref="I121">IFERROR(INDEX('TONG DA XLY'!$H$2:$H$243, MATCH(1, ('TONG DA XLY'!$D$2:$D$243=D121)*('TONG DA XLY'!$E$2:$E$243=E121), 0)),"")</f>
         <v>KDDK NQ10</v>
       </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J121" t="str">
+        <f t="array" ref="J121">IFERROR(INDEX([1]Sheet1!$C$2:$C$87, MATCH(1, ([1]Sheet1!$A$2:$A$87=D121)*([1]Sheet1!$B$2:$B$87=E121), 0)),"")</f>
+        <v>CLN</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122">
         <f>IF(B122&lt;&gt;"", SUBTOTAL(3, $B$2:B122), "")</f>
         <v>121</v>
@@ -18041,8 +19197,12 @@
         <f t="array" ref="I122">IFERROR(INDEX('TONG DA XLY'!$H$2:$H$243, MATCH(1, ('TONG DA XLY'!$D$2:$D$243=D122)*('TONG DA XLY'!$E$2:$E$243=E122), 0)),"")</f>
         <v>KDDK NQ10</v>
       </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J122" t="str">
+        <f t="array" ref="J122">IFERROR(INDEX([1]Sheet1!$C$2:$C$87, MATCH(1, ([1]Sheet1!$A$2:$A$87=D122)*([1]Sheet1!$B$2:$B$87=E122), 0)),"")</f>
+        <v>CLN</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123">
         <f>IF(B123&lt;&gt;"", SUBTOTAL(3, $B$2:B123), "")</f>
         <v>122</v>
@@ -18072,8 +19232,12 @@
         <f t="array" ref="I123">IFERROR(INDEX('TONG DA XLY'!$H$2:$H$243, MATCH(1, ('TONG DA XLY'!$D$2:$D$243=D123)*('TONG DA XLY'!$E$2:$E$243=E123), 0)),"")</f>
         <v>KDDK NQ10</v>
       </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J123" t="str">
+        <f t="array" ref="J123">IFERROR(INDEX([1]Sheet1!$C$2:$C$87, MATCH(1, ([1]Sheet1!$A$2:$A$87=D123)*([1]Sheet1!$B$2:$B$87=E123), 0)),"")</f>
+        <v>CLN</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124">
         <f>IF(B124&lt;&gt;"", SUBTOTAL(3, $B$2:B124), "")</f>
         <v>123</v>
@@ -18103,8 +19267,12 @@
         <f t="array" ref="I124">IFERROR(INDEX('TONG DA XLY'!$H$2:$H$243, MATCH(1, ('TONG DA XLY'!$D$2:$D$243=D124)*('TONG DA XLY'!$E$2:$E$243=E124), 0)),"")</f>
         <v>KDDK NQ10</v>
       </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J124" t="str">
+        <f t="array" ref="J124">IFERROR(INDEX([1]Sheet1!$C$2:$C$87, MATCH(1, ([1]Sheet1!$A$2:$A$87=D124)*([1]Sheet1!$B$2:$B$87=E124), 0)),"")</f>
+        <v>CLN</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125">
         <f>IF(B125&lt;&gt;"", SUBTOTAL(3, $B$2:B125), "")</f>
         <v>124</v>
@@ -18134,8 +19302,12 @@
         <f t="array" ref="I125">IFERROR(INDEX('TONG DA XLY'!$H$2:$H$243, MATCH(1, ('TONG DA XLY'!$D$2:$D$243=D125)*('TONG DA XLY'!$E$2:$E$243=E125), 0)),"")</f>
         <v>KDDK NQ10</v>
       </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J125" t="str">
+        <f t="array" ref="J125">IFERROR(INDEX([1]Sheet1!$C$2:$C$87, MATCH(1, ([1]Sheet1!$A$2:$A$87=D125)*([1]Sheet1!$B$2:$B$87=E125), 0)),"")</f>
+        <v>CLN</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126">
         <f>IF(B126&lt;&gt;"", SUBTOTAL(3, $B$2:B126), "")</f>
         <v>125</v>
@@ -18165,8 +19337,12 @@
         <f t="array" ref="I126">IFERROR(INDEX('TONG DA XLY'!$H$2:$H$243, MATCH(1, ('TONG DA XLY'!$D$2:$D$243=D126)*('TONG DA XLY'!$E$2:$E$243=E126), 0)),"")</f>
         <v>KDDK NQ10</v>
       </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J126" t="str">
+        <f t="array" ref="J126">IFERROR(INDEX([1]Sheet1!$C$2:$C$87, MATCH(1, ([1]Sheet1!$A$2:$A$87=D126)*([1]Sheet1!$B$2:$B$87=E126), 0)),"")</f>
+        <v>CLN</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127">
         <f>IF(B127&lt;&gt;"", SUBTOTAL(3, $B$2:B127), "")</f>
         <v>126</v>
@@ -18196,8 +19372,12 @@
         <f t="array" ref="I127">IFERROR(INDEX('TONG DA XLY'!$H$2:$H$243, MATCH(1, ('TONG DA XLY'!$D$2:$D$243=D127)*('TONG DA XLY'!$E$2:$E$243=E127), 0)),"")</f>
         <v>KDDK NQ10</v>
       </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J127" t="str">
+        <f t="array" ref="J127">IFERROR(INDEX([1]Sheet1!$C$2:$C$87, MATCH(1, ([1]Sheet1!$A$2:$A$87=D127)*([1]Sheet1!$B$2:$B$87=E127), 0)),"")</f>
+        <v>CLN</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128">
         <f>IF(B128&lt;&gt;"", SUBTOTAL(3, $B$2:B128), "")</f>
         <v>127</v>
@@ -18227,8 +19407,12 @@
         <f t="array" ref="I128">IFERROR(INDEX('TONG DA XLY'!$H$2:$H$243, MATCH(1, ('TONG DA XLY'!$D$2:$D$243=D128)*('TONG DA XLY'!$E$2:$E$243=E128), 0)),"")</f>
         <v>KDDK NQ10</v>
       </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J128" t="str">
+        <f t="array" ref="J128">IFERROR(INDEX([1]Sheet1!$C$2:$C$87, MATCH(1, ([1]Sheet1!$A$2:$A$87=D128)*([1]Sheet1!$B$2:$B$87=E128), 0)),"")</f>
+        <v>CLN</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129">
         <f>IF(B129&lt;&gt;"", SUBTOTAL(3, $B$2:B129), "")</f>
         <v>128</v>
@@ -18258,8 +19442,12 @@
         <f t="array" ref="I129">IFERROR(INDEX('TONG DA XLY'!$H$2:$H$243, MATCH(1, ('TONG DA XLY'!$D$2:$D$243=D129)*('TONG DA XLY'!$E$2:$E$243=E129), 0)),"")</f>
         <v>KDDK NQ10</v>
       </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J129" t="str">
+        <f t="array" ref="J129">IFERROR(INDEX([1]Sheet1!$C$2:$C$87, MATCH(1, ([1]Sheet1!$A$2:$A$87=D129)*([1]Sheet1!$B$2:$B$87=E129), 0)),"")</f>
+        <v>CLN</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130">
         <f>IF(B130&lt;&gt;"", SUBTOTAL(3, $B$2:B130), "")</f>
         <v>129</v>
@@ -18289,8 +19477,12 @@
         <f t="array" ref="I130">IFERROR(INDEX('TONG DA XLY'!$H$2:$H$243, MATCH(1, ('TONG DA XLY'!$D$2:$D$243=D130)*('TONG DA XLY'!$E$2:$E$243=E130), 0)),"")</f>
         <v>KDDK NQ10</v>
       </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J130" t="str">
+        <f t="array" ref="J130">IFERROR(INDEX([1]Sheet1!$C$2:$C$87, MATCH(1, ([1]Sheet1!$A$2:$A$87=D130)*([1]Sheet1!$B$2:$B$87=E130), 0)),"")</f>
+        <v>CLN</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131">
         <f>IF(B131&lt;&gt;"", SUBTOTAL(3, $B$2:B131), "")</f>
         <v>130</v>
@@ -18320,8 +19512,12 @@
         <f t="array" ref="I131">IFERROR(INDEX('TONG DA XLY'!$H$2:$H$243, MATCH(1, ('TONG DA XLY'!$D$2:$D$243=D131)*('TONG DA XLY'!$E$2:$E$243=E131), 0)),"")</f>
         <v>KDDK NQ10</v>
       </c>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J131" t="str">
+        <f t="array" ref="J131">IFERROR(INDEX([1]Sheet1!$C$2:$C$87, MATCH(1, ([1]Sheet1!$A$2:$A$87=D131)*([1]Sheet1!$B$2:$B$87=E131), 0)),"")</f>
+        <v>CLN</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132">
         <f>IF(B132&lt;&gt;"", SUBTOTAL(3, $B$2:B132), "")</f>
         <v>131</v>
@@ -18351,8 +19547,12 @@
         <f t="array" ref="I132">IFERROR(INDEX('TONG DA XLY'!$H$2:$H$243, MATCH(1, ('TONG DA XLY'!$D$2:$D$243=D132)*('TONG DA XLY'!$E$2:$E$243=E132), 0)),"")</f>
         <v>KDDK NQ10</v>
       </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J132" t="str">
+        <f t="array" ref="J132">IFERROR(INDEX([1]Sheet1!$C$2:$C$87, MATCH(1, ([1]Sheet1!$A$2:$A$87=D132)*([1]Sheet1!$B$2:$B$87=E132), 0)),"")</f>
+        <v>CLN</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133">
         <f>IF(B133&lt;&gt;"", SUBTOTAL(3, $B$2:B133), "")</f>
         <v>132</v>
@@ -18382,8 +19582,12 @@
         <f t="array" ref="I133">IFERROR(INDEX('TONG DA XLY'!$H$2:$H$243, MATCH(1, ('TONG DA XLY'!$D$2:$D$243=D133)*('TONG DA XLY'!$E$2:$E$243=E133), 0)),"")</f>
         <v>KDDK NQ10</v>
       </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J133" t="str">
+        <f t="array" ref="J133">IFERROR(INDEX([1]Sheet1!$C$2:$C$87, MATCH(1, ([1]Sheet1!$A$2:$A$87=D133)*([1]Sheet1!$B$2:$B$87=E133), 0)),"")</f>
+        <v>CLN</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134">
         <f>IF(B134&lt;&gt;"", SUBTOTAL(3, $B$2:B134), "")</f>
         <v>133</v>
@@ -18413,8 +19617,12 @@
         <f t="array" ref="I134">IFERROR(INDEX('TONG DA XLY'!$H$2:$H$243, MATCH(1, ('TONG DA XLY'!$D$2:$D$243=D134)*('TONG DA XLY'!$E$2:$E$243=E134), 0)),"")</f>
         <v>KDDK NQ10</v>
       </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J134" t="str">
+        <f t="array" ref="J134">IFERROR(INDEX([1]Sheet1!$C$2:$C$87, MATCH(1, ([1]Sheet1!$A$2:$A$87=D134)*([1]Sheet1!$B$2:$B$87=E134), 0)),"")</f>
+        <v>CLN</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135">
         <f>IF(B135&lt;&gt;"", SUBTOTAL(3, $B$2:B135), "")</f>
         <v>134</v>
@@ -18444,8 +19652,12 @@
         <f t="array" ref="I135">IFERROR(INDEX('TONG DA XLY'!$H$2:$H$243, MATCH(1, ('TONG DA XLY'!$D$2:$D$243=D135)*('TONG DA XLY'!$E$2:$E$243=E135), 0)),"")</f>
         <v>KDDK NQ10</v>
       </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J135" t="str">
+        <f t="array" ref="J135">IFERROR(INDEX([1]Sheet1!$C$2:$C$87, MATCH(1, ([1]Sheet1!$A$2:$A$87=D135)*([1]Sheet1!$B$2:$B$87=E135), 0)),"")</f>
+        <v>CLN</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136">
         <f>IF(B136&lt;&gt;"", SUBTOTAL(3, $B$2:B136), "")</f>
         <v>135</v>
@@ -18475,8 +19687,12 @@
         <f t="array" ref="I136">IFERROR(INDEX('TONG DA XLY'!$H$2:$H$243, MATCH(1, ('TONG DA XLY'!$D$2:$D$243=D136)*('TONG DA XLY'!$E$2:$E$243=E136), 0)),"")</f>
         <v>KDDK NQ10</v>
       </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J136" t="str">
+        <f t="array" ref="J136">IFERROR(INDEX([1]Sheet1!$C$2:$C$87, MATCH(1, ([1]Sheet1!$A$2:$A$87=D136)*([1]Sheet1!$B$2:$B$87=E136), 0)),"")</f>
+        <v>CLN</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137">
         <f>IF(B137&lt;&gt;"", SUBTOTAL(3, $B$2:B137), "")</f>
         <v>136</v>
@@ -18506,8 +19722,12 @@
         <f t="array" ref="I137">IFERROR(INDEX('TONG DA XLY'!$H$2:$H$243, MATCH(1, ('TONG DA XLY'!$D$2:$D$243=D137)*('TONG DA XLY'!$E$2:$E$243=E137), 0)),"")</f>
         <v>KDDK NQ10</v>
       </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J137" t="str">
+        <f t="array" ref="J137">IFERROR(INDEX([1]Sheet1!$C$2:$C$87, MATCH(1, ([1]Sheet1!$A$2:$A$87=D137)*([1]Sheet1!$B$2:$B$87=E137), 0)),"")</f>
+        <v>CLN</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138">
         <f>IF(B138&lt;&gt;"", SUBTOTAL(3, $B$2:B138), "")</f>
         <v>137</v>
@@ -18537,8 +19757,12 @@
         <f t="array" ref="I138">IFERROR(INDEX('TONG DA XLY'!$H$2:$H$243, MATCH(1, ('TONG DA XLY'!$D$2:$D$243=D138)*('TONG DA XLY'!$E$2:$E$243=E138), 0)),"")</f>
         <v>KDDK NQ10</v>
       </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J138" t="str">
+        <f t="array" ref="J138">IFERROR(INDEX([1]Sheet1!$C$2:$C$87, MATCH(1, ([1]Sheet1!$A$2:$A$87=D138)*([1]Sheet1!$B$2:$B$87=E138), 0)),"")</f>
+        <v>CLN</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139">
         <f>IF(B139&lt;&gt;"", SUBTOTAL(3, $B$2:B139), "")</f>
         <v>138</v>
@@ -18568,8 +19792,12 @@
         <f t="array" ref="I139">IFERROR(INDEX('TONG DA XLY'!$H$2:$H$243, MATCH(1, ('TONG DA XLY'!$D$2:$D$243=D139)*('TONG DA XLY'!$E$2:$E$243=E139), 0)),"")</f>
         <v>KDDK NQ10</v>
       </c>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J139" t="str">
+        <f t="array" ref="J139">IFERROR(INDEX([1]Sheet1!$C$2:$C$87, MATCH(1, ([1]Sheet1!$A$2:$A$87=D139)*([1]Sheet1!$B$2:$B$87=E139), 0)),"")</f>
+        <v>CLN</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140">
         <f>IF(B140&lt;&gt;"", SUBTOTAL(3, $B$2:B140), "")</f>
         <v>139</v>
@@ -18599,8 +19827,12 @@
         <f t="array" ref="I140">IFERROR(INDEX('TONG DA XLY'!$H$2:$H$243, MATCH(1, ('TONG DA XLY'!$D$2:$D$243=D140)*('TONG DA XLY'!$E$2:$E$243=E140), 0)),"")</f>
         <v>KDDK NQ10</v>
       </c>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J140" t="str">
+        <f t="array" ref="J140">IFERROR(INDEX([1]Sheet1!$C$2:$C$87, MATCH(1, ([1]Sheet1!$A$2:$A$87=D140)*([1]Sheet1!$B$2:$B$87=E140), 0)),"")</f>
+        <v>CLN</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141">
         <f>IF(B141&lt;&gt;"", SUBTOTAL(3, $B$2:B141), "")</f>
         <v>140</v>
@@ -18630,8 +19862,12 @@
         <f t="array" ref="I141">IFERROR(INDEX('TONG DA XLY'!$H$2:$H$243, MATCH(1, ('TONG DA XLY'!$D$2:$D$243=D141)*('TONG DA XLY'!$E$2:$E$243=E141), 0)),"")</f>
         <v>KDDK NQ10</v>
       </c>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J141" t="str">
+        <f t="array" ref="J141">IFERROR(INDEX([1]Sheet1!$C$2:$C$87, MATCH(1, ([1]Sheet1!$A$2:$A$87=D141)*([1]Sheet1!$B$2:$B$87=E141), 0)),"")</f>
+        <v>CLN</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142">
         <f>IF(B142&lt;&gt;"", SUBTOTAL(3, $B$2:B142), "")</f>
         <v>141</v>
@@ -18661,8 +19897,12 @@
         <f t="array" ref="I142">IFERROR(INDEX('TONG DA XLY'!$H$2:$H$243, MATCH(1, ('TONG DA XLY'!$D$2:$D$243=D142)*('TONG DA XLY'!$E$2:$E$243=E142), 0)),"")</f>
         <v>KDDK NQ10</v>
       </c>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J142" t="str">
+        <f t="array" ref="J142">IFERROR(INDEX([1]Sheet1!$C$2:$C$87, MATCH(1, ([1]Sheet1!$A$2:$A$87=D142)*([1]Sheet1!$B$2:$B$87=E142), 0)),"")</f>
+        <v>CLN</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143">
         <f>IF(B143&lt;&gt;"", SUBTOTAL(3, $B$2:B143), "")</f>
         <v>142</v>
@@ -18692,8 +19932,12 @@
         <f t="array" ref="I143">IFERROR(INDEX('TONG DA XLY'!$H$2:$H$243, MATCH(1, ('TONG DA XLY'!$D$2:$D$243=D143)*('TONG DA XLY'!$E$2:$E$243=E143), 0)),"")</f>
         <v>KDDK NQ10</v>
       </c>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J143" t="str">
+        <f t="array" ref="J143">IFERROR(INDEX([1]Sheet1!$C$2:$C$87, MATCH(1, ([1]Sheet1!$A$2:$A$87=D143)*([1]Sheet1!$B$2:$B$87=E143), 0)),"")</f>
+        <v>CLN</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144">
         <f>IF(B144&lt;&gt;"", SUBTOTAL(3, $B$2:B144), "")</f>
         <v>143</v>
@@ -18723,8 +19967,12 @@
         <f t="array" ref="I144">IFERROR(INDEX('TONG DA XLY'!$H$2:$H$243, MATCH(1, ('TONG DA XLY'!$D$2:$D$243=D144)*('TONG DA XLY'!$E$2:$E$243=E144), 0)),"")</f>
         <v>KDDK NQ10</v>
       </c>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J144" t="str">
+        <f t="array" ref="J144">IFERROR(INDEX([1]Sheet1!$C$2:$C$87, MATCH(1, ([1]Sheet1!$A$2:$A$87=D144)*([1]Sheet1!$B$2:$B$87=E144), 0)),"")</f>
+        <v>CLN</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145">
         <f>IF(B145&lt;&gt;"", SUBTOTAL(3, $B$2:B145), "")</f>
         <v>144</v>
@@ -18754,8 +20002,12 @@
         <f t="array" ref="I145">IFERROR(INDEX('TONG DA XLY'!$H$2:$H$243, MATCH(1, ('TONG DA XLY'!$D$2:$D$243=D145)*('TONG DA XLY'!$E$2:$E$243=E145), 0)),"")</f>
         <v>KDDK NQ10</v>
       </c>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J145" t="str">
+        <f t="array" ref="J145">IFERROR(INDEX([1]Sheet1!$C$2:$C$87, MATCH(1, ([1]Sheet1!$A$2:$A$87=D145)*([1]Sheet1!$B$2:$B$87=E145), 0)),"")</f>
+        <v>CLN</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146">
         <f>IF(B146&lt;&gt;"", SUBTOTAL(3, $B$2:B146), "")</f>
         <v>145</v>
@@ -18785,8 +20037,12 @@
         <f t="array" ref="I146">IFERROR(INDEX('TONG DA XLY'!$H$2:$H$243, MATCH(1, ('TONG DA XLY'!$D$2:$D$243=D146)*('TONG DA XLY'!$E$2:$E$243=E146), 0)),"")</f>
         <v>KDDK NQ10</v>
       </c>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J146" t="str">
+        <f t="array" ref="J146">IFERROR(INDEX([1]Sheet1!$C$2:$C$87, MATCH(1, ([1]Sheet1!$A$2:$A$87=D146)*([1]Sheet1!$B$2:$B$87=E146), 0)),"")</f>
+        <v>CLN</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147">
         <f>IF(B147&lt;&gt;"", SUBTOTAL(3, $B$2:B147), "")</f>
         <v>146</v>
@@ -18816,8 +20072,12 @@
         <f t="array" ref="I147">IFERROR(INDEX('TONG DA XLY'!$H$2:$H$243, MATCH(1, ('TONG DA XLY'!$D$2:$D$243=D147)*('TONG DA XLY'!$E$2:$E$243=E147), 0)),"")</f>
         <v>KDDK NQ10</v>
       </c>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J147" t="str">
+        <f t="array" ref="J147">IFERROR(INDEX([1]Sheet1!$C$2:$C$87, MATCH(1, ([1]Sheet1!$A$2:$A$87=D147)*([1]Sheet1!$B$2:$B$87=E147), 0)),"")</f>
+        <v>CLN</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148">
         <f>IF(B148&lt;&gt;"", SUBTOTAL(3, $B$2:B148), "")</f>
         <v>147</v>
@@ -18847,8 +20107,12 @@
         <f t="array" ref="I148">IFERROR(INDEX('TONG DA XLY'!$H$2:$H$243, MATCH(1, ('TONG DA XLY'!$D$2:$D$243=D148)*('TONG DA XLY'!$E$2:$E$243=E148), 0)),"")</f>
         <v>KDDK NQ10</v>
       </c>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J148" t="str">
+        <f t="array" ref="J148">IFERROR(INDEX([1]Sheet1!$C$2:$C$87, MATCH(1, ([1]Sheet1!$A$2:$A$87=D148)*([1]Sheet1!$B$2:$B$87=E148), 0)),"")</f>
+        <v>CLN</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149">
         <f>IF(B149&lt;&gt;"", SUBTOTAL(3, $B$2:B149), "")</f>
         <v>148</v>
@@ -18878,8 +20142,12 @@
         <f t="array" ref="I149">IFERROR(INDEX('TONG DA XLY'!$H$2:$H$243, MATCH(1, ('TONG DA XLY'!$D$2:$D$243=D149)*('TONG DA XLY'!$E$2:$E$243=E149), 0)),"")</f>
         <v>KDDK NQ10</v>
       </c>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J149" t="str">
+        <f t="array" ref="J149">IFERROR(INDEX([1]Sheet1!$C$2:$C$87, MATCH(1, ([1]Sheet1!$A$2:$A$87=D149)*([1]Sheet1!$B$2:$B$87=E149), 0)),"")</f>
+        <v>CLN</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150">
         <f>IF(B150&lt;&gt;"", SUBTOTAL(3, $B$2:B150), "")</f>
         <v>149</v>
@@ -18909,8 +20177,12 @@
         <f t="array" ref="I150">IFERROR(INDEX('TONG DA XLY'!$H$2:$H$243, MATCH(1, ('TONG DA XLY'!$D$2:$D$243=D150)*('TONG DA XLY'!$E$2:$E$243=E150), 0)),"")</f>
         <v>KDDK NQ10</v>
       </c>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J150" t="str">
+        <f t="array" ref="J150">IFERROR(INDEX([1]Sheet1!$C$2:$C$87, MATCH(1, ([1]Sheet1!$A$2:$A$87=D150)*([1]Sheet1!$B$2:$B$87=E150), 0)),"")</f>
+        <v>CLN</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151">
         <f>IF(B151&lt;&gt;"", SUBTOTAL(3, $B$2:B151), "")</f>
         <v>150</v>
@@ -18940,8 +20212,12 @@
         <f t="array" ref="I151">IFERROR(INDEX('TONG DA XLY'!$H$2:$H$243, MATCH(1, ('TONG DA XLY'!$D$2:$D$243=D151)*('TONG DA XLY'!$E$2:$E$243=E151), 0)),"")</f>
         <v>KDDK NQ10</v>
       </c>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J151" t="str">
+        <f t="array" ref="J151">IFERROR(INDEX([1]Sheet1!$C$2:$C$87, MATCH(1, ([1]Sheet1!$A$2:$A$87=D151)*([1]Sheet1!$B$2:$B$87=E151), 0)),"")</f>
+        <v>CLN</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152">
         <f>IF(B152&lt;&gt;"", SUBTOTAL(3, $B$2:B152), "")</f>
         <v>151</v>
@@ -18971,8 +20247,12 @@
         <f t="array" ref="I152">IFERROR(INDEX('TONG DA XLY'!$H$2:$H$243, MATCH(1, ('TONG DA XLY'!$D$2:$D$243=D152)*('TONG DA XLY'!$E$2:$E$243=E152), 0)),"")</f>
         <v>KDDK NQ10</v>
       </c>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J152" t="str">
+        <f t="array" ref="J152">IFERROR(INDEX([1]Sheet1!$C$2:$C$87, MATCH(1, ([1]Sheet1!$A$2:$A$87=D152)*([1]Sheet1!$B$2:$B$87=E152), 0)),"")</f>
+        <v>CLN</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153">
         <f>IF(B153&lt;&gt;"", SUBTOTAL(3, $B$2:B153), "")</f>
         <v>152</v>
@@ -19002,8 +20282,12 @@
         <f t="array" ref="I153">IFERROR(INDEX('TONG DA XLY'!$H$2:$H$243, MATCH(1, ('TONG DA XLY'!$D$2:$D$243=D153)*('TONG DA XLY'!$E$2:$E$243=E153), 0)),"")</f>
         <v>KDDK NQ10</v>
       </c>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J153" t="str">
+        <f t="array" ref="J153">IFERROR(INDEX([1]Sheet1!$C$2:$C$87, MATCH(1, ([1]Sheet1!$A$2:$A$87=D153)*([1]Sheet1!$B$2:$B$87=E153), 0)),"")</f>
+        <v>CLN</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154">
         <f>IF(B154&lt;&gt;"", SUBTOTAL(3, $B$2:B154), "")</f>
         <v>153</v>
@@ -19033,8 +20317,12 @@
         <f t="array" ref="I154">IFERROR(INDEX('TONG DA XLY'!$H$2:$H$243, MATCH(1, ('TONG DA XLY'!$D$2:$D$243=D154)*('TONG DA XLY'!$E$2:$E$243=E154), 0)),"")</f>
         <v>KDDK NQ10</v>
       </c>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J154" t="str">
+        <f t="array" ref="J154">IFERROR(INDEX([1]Sheet1!$C$2:$C$87, MATCH(1, ([1]Sheet1!$A$2:$A$87=D154)*([1]Sheet1!$B$2:$B$87=E154), 0)),"")</f>
+        <v>CLN</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155">
         <f>IF(B155&lt;&gt;"", SUBTOTAL(3, $B$2:B155), "")</f>
         <v>154</v>
@@ -19064,39 +20352,47 @@
         <f t="array" ref="I155">IFERROR(INDEX('TONG DA XLY'!$H$2:$H$243, MATCH(1, ('TONG DA XLY'!$D$2:$D$243=D155)*('TONG DA XLY'!$E$2:$E$243=E155), 0)),"")</f>
         <v>KDDK NQ10</v>
       </c>
-    </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A156">
+      <c r="J155" t="str">
+        <f t="array" ref="J155">IFERROR(INDEX([1]Sheet1!$C$2:$C$87, MATCH(1, ([1]Sheet1!$A$2:$A$87=D155)*([1]Sheet1!$B$2:$B$87=E155), 0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A156" s="11">
         <f>IF(B156&lt;&gt;"", SUBTOTAL(3, $B$2:B156), "")</f>
         <v>155</v>
       </c>
-      <c r="B156" s="10">
+      <c r="B156" s="12">
         <v>547226.25814978499</v>
       </c>
-      <c r="C156" s="10">
+      <c r="C156" s="12">
         <v>1823912.5129273999</v>
       </c>
-      <c r="D156" s="10">
-        <v>21</v>
-      </c>
-      <c r="E156" s="10">
-        <v>231</v>
-      </c>
-      <c r="F156" s="10">
+      <c r="D156" s="12">
+        <v>21</v>
+      </c>
+      <c r="E156" s="12">
+        <v>262</v>
+      </c>
+      <c r="F156" s="12">
         <v>31074</v>
       </c>
-      <c r="G156" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="H156" s="9" t="s">
+      <c r="G156" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="H156" s="13" t="s">
         <v>217</v>
       </c>
-      <c r="I156" s="9" t="str">
+      <c r="I156" s="13" t="str">
         <f t="array" ref="I156">IFERROR(INDEX('TONG DA XLY'!$H$2:$H$243, MATCH(1, ('TONG DA XLY'!$D$2:$D$243=D156)*('TONG DA XLY'!$E$2:$E$243=E156), 0)),"")</f>
-        <v>KDDK NQ10</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+      <c r="J156" t="str">
+        <f t="array" ref="J156">IFERROR(INDEX([1]Sheet1!$C$2:$C$87, MATCH(1, ([1]Sheet1!$A$2:$A$87=D156)*([1]Sheet1!$B$2:$B$87=E156), 0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A157">
         <f>IF(B157&lt;&gt;"", SUBTOTAL(3, $B$2:B157), "")</f>
         <v>156</v>
@@ -19111,7 +20407,7 @@
         <v>21</v>
       </c>
       <c r="E157" s="10">
-        <v>232</v>
+        <v>263</v>
       </c>
       <c r="F157" s="10">
         <v>7245</v>
@@ -19124,10 +20420,14 @@
       </c>
       <c r="I157" s="9" t="str">
         <f t="array" ref="I157">IFERROR(INDEX('TONG DA XLY'!$H$2:$H$243, MATCH(1, ('TONG DA XLY'!$D$2:$D$243=D157)*('TONG DA XLY'!$E$2:$E$243=E157), 0)),"")</f>
-        <v>KDDK NQ10</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+      <c r="J157" t="str">
+        <f t="array" ref="J157">IFERROR(INDEX([1]Sheet1!$C$2:$C$87, MATCH(1, ([1]Sheet1!$A$2:$A$87=D157)*([1]Sheet1!$B$2:$B$87=E157), 0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158">
         <f>IF(B158&lt;&gt;"", SUBTOTAL(3, $B$2:B158), "")</f>
         <v>157</v>
@@ -19157,8 +20457,12 @@
         <f t="array" ref="I158">IFERROR(INDEX('TONG DA XLY'!$H$2:$H$243, MATCH(1, ('TONG DA XLY'!$D$2:$D$243=D158)*('TONG DA XLY'!$E$2:$E$243=E158), 0)),"")</f>
         <v>KDDK NQ10</v>
       </c>
-    </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J158" t="str">
+        <f t="array" ref="J158">IFERROR(INDEX([1]Sheet1!$C$2:$C$87, MATCH(1, ([1]Sheet1!$A$2:$A$87=D158)*([1]Sheet1!$B$2:$B$87=E158), 0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A159">
         <f>IF(B159&lt;&gt;"", SUBTOTAL(3, $B$2:B159), "")</f>
         <v>158</v>
@@ -19188,8 +20492,12 @@
         <f t="array" ref="I159">IFERROR(INDEX('TONG DA XLY'!$H$2:$H$243, MATCH(1, ('TONG DA XLY'!$D$2:$D$243=D159)*('TONG DA XLY'!$E$2:$E$243=E159), 0)),"")</f>
         <v>KDDK NQ10</v>
       </c>
-    </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J159" t="str">
+        <f t="array" ref="J159">IFERROR(INDEX([1]Sheet1!$C$2:$C$87, MATCH(1, ([1]Sheet1!$A$2:$A$87=D159)*([1]Sheet1!$B$2:$B$87=E159), 0)),"")</f>
+        <v>CLN</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160">
         <f>IF(B160&lt;&gt;"", SUBTOTAL(3, $B$2:B160), "")</f>
         <v>159</v>
@@ -19219,8 +20527,12 @@
         <f t="array" ref="I160">IFERROR(INDEX('TONG DA XLY'!$H$2:$H$243, MATCH(1, ('TONG DA XLY'!$D$2:$D$243=D160)*('TONG DA XLY'!$E$2:$E$243=E160), 0)),"")</f>
         <v>KDDK NQ10</v>
       </c>
-    </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J160" t="str">
+        <f t="array" ref="J160">IFERROR(INDEX([1]Sheet1!$C$2:$C$87, MATCH(1, ([1]Sheet1!$A$2:$A$87=D160)*([1]Sheet1!$B$2:$B$87=E160), 0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161">
         <f>IF(B161&lt;&gt;"", SUBTOTAL(3, $B$2:B161), "")</f>
         <v>160</v>
@@ -19250,8 +20562,12 @@
         <f t="array" ref="I161">IFERROR(INDEX('TONG DA XLY'!$H$2:$H$243, MATCH(1, ('TONG DA XLY'!$D$2:$D$243=D161)*('TONG DA XLY'!$E$2:$E$243=E161), 0)),"")</f>
         <v>KDDK NQ10</v>
       </c>
-    </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J161" t="str">
+        <f t="array" ref="J161">IFERROR(INDEX([1]Sheet1!$C$2:$C$87, MATCH(1, ([1]Sheet1!$A$2:$A$87=D161)*([1]Sheet1!$B$2:$B$87=E161), 0)),"")</f>
+        <v>CLN</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A162">
         <f>IF(B162&lt;&gt;"", SUBTOTAL(3, $B$2:B162), "")</f>
         <v>161</v>
@@ -19281,8 +20597,12 @@
         <f t="array" ref="I162">IFERROR(INDEX('TONG DA XLY'!$H$2:$H$243, MATCH(1, ('TONG DA XLY'!$D$2:$D$243=D162)*('TONG DA XLY'!$E$2:$E$243=E162), 0)),"")</f>
         <v>KDDK NQ10</v>
       </c>
-    </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J162" t="str">
+        <f t="array" ref="J162">IFERROR(INDEX([1]Sheet1!$C$2:$C$87, MATCH(1, ([1]Sheet1!$A$2:$A$87=D162)*([1]Sheet1!$B$2:$B$87=E162), 0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163">
         <f>IF(B163&lt;&gt;"", SUBTOTAL(3, $B$2:B163), "")</f>
         <v>162</v>
@@ -19312,8 +20632,12 @@
         <f t="array" ref="I163">IFERROR(INDEX('TONG DA XLY'!$H$2:$H$243, MATCH(1, ('TONG DA XLY'!$D$2:$D$243=D163)*('TONG DA XLY'!$E$2:$E$243=E163), 0)),"")</f>
         <v>KDDK NQ10</v>
       </c>
-    </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J163" t="str">
+        <f t="array" ref="J163">IFERROR(INDEX([1]Sheet1!$C$2:$C$87, MATCH(1, ([1]Sheet1!$A$2:$A$87=D163)*([1]Sheet1!$B$2:$B$87=E163), 0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A164">
         <f>IF(B164&lt;&gt;"", SUBTOTAL(3, $B$2:B164), "")</f>
         <v>163</v>
@@ -19343,8 +20667,12 @@
         <f t="array" ref="I164">IFERROR(INDEX('TONG DA XLY'!$H$2:$H$243, MATCH(1, ('TONG DA XLY'!$D$2:$D$243=D164)*('TONG DA XLY'!$E$2:$E$243=E164), 0)),"")</f>
         <v>KDDK NQ10</v>
       </c>
-    </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J164" t="str">
+        <f t="array" ref="J164">IFERROR(INDEX([1]Sheet1!$C$2:$C$87, MATCH(1, ([1]Sheet1!$A$2:$A$87=D164)*([1]Sheet1!$B$2:$B$87=E164), 0)),"")</f>
+        <v>CLN</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A165">
         <f>IF(B165&lt;&gt;"", SUBTOTAL(3, $B$2:B165), "")</f>
         <v>164</v>
@@ -19374,8 +20702,12 @@
         <f t="array" ref="I165">IFERROR(INDEX('TONG DA XLY'!$H$2:$H$243, MATCH(1, ('TONG DA XLY'!$D$2:$D$243=D165)*('TONG DA XLY'!$E$2:$E$243=E165), 0)),"")</f>
         <v>KDDK NQ10</v>
       </c>
-    </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J165" t="str">
+        <f t="array" ref="J165">IFERROR(INDEX([1]Sheet1!$C$2:$C$87, MATCH(1, ([1]Sheet1!$A$2:$A$87=D165)*([1]Sheet1!$B$2:$B$87=E165), 0)),"")</f>
+        <v>CLN</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A166">
         <f>IF(B166&lt;&gt;"", SUBTOTAL(3, $B$2:B166), "")</f>
         <v>165</v>
@@ -19405,8 +20737,12 @@
         <f t="array" ref="I166">IFERROR(INDEX('TONG DA XLY'!$H$2:$H$243, MATCH(1, ('TONG DA XLY'!$D$2:$D$243=D166)*('TONG DA XLY'!$E$2:$E$243=E166), 0)),"")</f>
         <v>KDDK NQ10</v>
       </c>
-    </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J166" t="str">
+        <f t="array" ref="J166">IFERROR(INDEX([1]Sheet1!$C$2:$C$87, MATCH(1, ([1]Sheet1!$A$2:$A$87=D166)*([1]Sheet1!$B$2:$B$87=E166), 0)),"")</f>
+        <v>CLN</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A167">
         <f>IF(B167&lt;&gt;"", SUBTOTAL(3, $B$2:B167), "")</f>
         <v>166</v>
@@ -19436,8 +20772,12 @@
         <f t="array" ref="I167">IFERROR(INDEX('TONG DA XLY'!$H$2:$H$243, MATCH(1, ('TONG DA XLY'!$D$2:$D$243=D167)*('TONG DA XLY'!$E$2:$E$243=E167), 0)),"")</f>
         <v>KDDK NQ10</v>
       </c>
-    </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J167" t="str">
+        <f t="array" ref="J167">IFERROR(INDEX([1]Sheet1!$C$2:$C$87, MATCH(1, ([1]Sheet1!$A$2:$A$87=D167)*([1]Sheet1!$B$2:$B$87=E167), 0)),"")</f>
+        <v>CLN</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A168">
         <f>IF(B168&lt;&gt;"", SUBTOTAL(3, $B$2:B168), "")</f>
         <v>167</v>
@@ -19468,7 +20808,7 @@
         <v>4069_6974</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A169">
         <f>IF(B169&lt;&gt;"", SUBTOTAL(3, $B$2:B169), "")</f>
         <v>168</v>
@@ -19499,7 +20839,7 @@
         <v>4069_6974</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A170">
         <f>IF(B170&lt;&gt;"", SUBTOTAL(3, $B$2:B170), "")</f>
         <v>169</v>
@@ -19530,7 +20870,7 @@
         <v>4069_6974</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A171">
         <f>IF(B171&lt;&gt;"", SUBTOTAL(3, $B$2:B171), "")</f>
         <v>170</v>
@@ -19561,7 +20901,7 @@
         <v>4069_6974</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A172">
         <f>IF(B172&lt;&gt;"", SUBTOTAL(3, $B$2:B172), "")</f>
         <v>171</v>
@@ -19592,7 +20932,7 @@
         <v>4069_6974</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A173">
         <f>IF(B173&lt;&gt;"", SUBTOTAL(3, $B$2:B173), "")</f>
         <v>172</v>
@@ -19623,7 +20963,7 @@
         <v>4069_6974</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A174">
         <f>IF(B174&lt;&gt;"", SUBTOTAL(3, $B$2:B174), "")</f>
         <v>173</v>
@@ -19654,7 +20994,7 @@
         <v>4069_6974</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A175">
         <f>IF(B175&lt;&gt;"", SUBTOTAL(3, $B$2:B175), "")</f>
         <v>174</v>
@@ -19685,7 +21025,7 @@
         <v>4069_6974</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A176">
         <f>IF(B176&lt;&gt;"", SUBTOTAL(3, $B$2:B176), "")</f>
         <v>175</v>
